--- a/Data_clean/MCAS/Estados_US/Edos_USA_2012/WYOMING_2012.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2012/WYOMING_2012.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Pabellon De Arteaga</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Rincon De Romos</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tepezala</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Tuxtla Chico</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Tuzantan</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Bachiniva</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Buenaventura</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Gomez Farias</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Gran Morelos</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Janos</t>
@@ -790,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Juarez</t>
@@ -803,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>La Cruz</t>
@@ -816,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Lopez</t>
@@ -829,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -842,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Meoqui</t>
@@ -855,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -868,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -881,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Ojinaga</t>
@@ -894,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Riva Palacio</t>
@@ -907,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>San Francisco De Borja</t>
@@ -920,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Satevo</t>
@@ -933,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -946,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -977,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1008,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Comala</t>
@@ -1021,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tecoman</t>
@@ -1034,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Villa De Alvarez</t>
@@ -1047,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1078,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1091,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Benito Juarez</t>
@@ -1104,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Coyoacan</t>
@@ -1117,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -1130,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1143,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1156,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1169,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1182,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Tlahuac</t>
@@ -1195,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1208,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1221,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1252,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1265,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Gomez Palacio</t>
@@ -1278,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Guanacevi</t>
@@ -1291,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Inde</t>
@@ -1304,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -1317,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Mapimi</t>
@@ -1330,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Mezquital</t>
@@ -1343,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Nazas</t>
@@ -1356,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Poanas</t>
@@ -1369,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>San Bernardo</t>
@@ -1382,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Santiago Papasquiaro</t>
@@ -1395,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1408,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1439,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Acambaro</t>
@@ -1452,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1465,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Cueramaro</t>
@@ -1478,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Doctor Mora</t>
@@ -1491,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -1504,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1517,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -1530,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Penjamo</t>
@@ -1543,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -1556,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -1569,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -1582,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Silao</t>
@@ -1595,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -1608,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -1621,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1652,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Ajuchitlan Del Progreso</t>
@@ -1665,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Alpoyeca</t>
@@ -1678,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -1691,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Coyuca De Benitez</t>
@@ -1704,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -1717,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -1730,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -1743,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -1756,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Petatlan</t>
@@ -1769,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -1782,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1813,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Cuautepec De Hinojosa</t>
@@ -1826,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1857,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Autlan De Navarro</t>
@@ -1870,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Ayotlan</t>
@@ -1883,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1896,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Colotlan</t>
@@ -1909,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Cuquio</t>
@@ -1922,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Encarnacion De Diaz</t>
@@ -1935,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Gomez Farias</t>
@@ -1948,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1961,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Jalostotitlan</t>
@@ -1974,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Jilotlan De Los Dolores</t>
@@ -1987,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Juchitlan</t>
@@ -2000,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -2013,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -2026,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -2039,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Ocotlan</t>
@@ -2052,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -2065,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>San Diego De Alejandria</t>
@@ -2078,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -2091,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>San Julian</t>
@@ -2104,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -2117,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -2130,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -2143,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Tlaquepaque</t>
@@ -2156,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Tomatlan</t>
@@ -2169,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Tonala</t>
@@ -2182,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Union De Tula</t>
@@ -2195,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Villa Purificacion</t>
@@ -2208,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -2221,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2252,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Acolman</t>
@@ -2265,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Almoloya De Juarez</t>
@@ -2278,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Atizapan De Zaragoza</t>
@@ -2291,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Capulhuac</t>
@@ -2304,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Chimalhuacan</t>
@@ -2317,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -2330,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -2343,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Naucalpan De Juarez</t>
@@ -2356,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -2369,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Tecamac</t>
@@ -2382,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -2395,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -2408,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Tultitlan</t>
@@ -2421,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2452,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Apatzingan</t>
@@ -2465,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -2478,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Gabriel Zamora</t>
@@ -2491,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -2504,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -2517,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Irimbo</t>
@@ -2530,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Ixtlan</t>
@@ -2543,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Jose Sixto Verduzco</t>
@@ -2556,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -2569,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Lazaro Cardenas</t>
@@ -2582,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Querendaro</t>
@@ -2595,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -2608,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Tanhuato</t>
@@ -2621,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -2634,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -2647,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -2660,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -2673,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -2686,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Zinapecuaro</t>
@@ -2699,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2730,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -2743,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2774,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -2787,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Santa Maria Del Oro</t>
@@ -2800,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -2813,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2844,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Pesqueria</t>
@@ -2857,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>San Nicolas De Los Garza</t>
@@ -2870,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2901,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De Leon</t>
@@ -2914,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Ixtlan De Juarez</t>
@@ -2927,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Ocotlan De Morelos</t>
@@ -2940,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>San Antonino Castillo Velasco</t>
@@ -2953,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>San Felipe Usila</t>
@@ -2966,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -2979,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>San Juan Mazatlan</t>
@@ -2992,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>San Martin Itunyoso</t>
@@ -3005,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>San Mateo Piñas</t>
@@ -3018,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -3031,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -3044,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -3057,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -3070,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Santiago Yosondua</t>
@@ -3083,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -3096,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Silacayoapam</t>
@@ -3109,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Villa De Zaachila</t>
@@ -3122,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Zimatlan De Alvarez</t>
@@ -3135,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3166,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Chalchicomula De Sesma</t>
@@ -3179,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -3192,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Esperanza</t>
@@ -3205,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -3218,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -3231,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Juan N. Mendez</t>
@@ -3244,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -3257,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>San Miguel Xoxtla</t>
@@ -3270,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Tehuacan</t>
@@ -3283,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Tepanco De Lopez</t>
@@ -3296,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -3309,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Tlapacoya</t>
@@ -3322,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Tzicatlacoyan</t>
@@ -3335,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Zongozotla</t>
@@ -3348,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3379,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3410,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3441,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -3454,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>San Luis Potosi</t>
@@ -3467,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Santa Maria Del Rio</t>
@@ -3480,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Tampamolon Corona</t>
@@ -3493,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Tamuin</t>
@@ -3506,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -3519,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3550,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Badiraguato</t>
@@ -3563,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Culiacan</t>
@@ -3576,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -3589,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Mocorito</t>
@@ -3602,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3633,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Bacerac</t>
@@ -3646,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Bacum</t>
@@ -3659,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Caborca</t>
@@ -3672,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -3685,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -3698,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Nacozari De Garcia</t>
@@ -3711,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Sahuaripa</t>
@@ -3724,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>San Luis Rio Colorado</t>
@@ -3737,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3768,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3799,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3830,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Apizaco</t>
@@ -3843,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Atlangatepec</t>
@@ -3856,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -3869,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -3882,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Contla De Juan Cuamatzi</t>
@@ -3895,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -3908,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -3921,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Muñoz De Domingo Arenas</t>
@@ -3934,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Nativitas</t>
@@ -3947,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -3960,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -3973,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -3986,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Xaloztoc</t>
@@ -3999,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -4012,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Yauhquemecan</t>
@@ -4025,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Zitlaltepec De Trinidad Sanchez Santos</t>
@@ -4038,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4069,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Coatepec</t>
@@ -4082,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -4095,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Ixhuatlan Del Cafe</t>
@@ -4108,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Martinez De La Torre</t>
@@ -4121,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -4134,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -4147,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -4160,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>San Andres Tuxtla</t>
@@ -4173,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -4186,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -4199,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Soteapan</t>
@@ -4212,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Tepatlaxco</t>
@@ -4225,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Tlacojalpan</t>
@@ -4238,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Tlacotalpan</t>
@@ -4251,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -4264,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Yecuatla</t>
@@ -4277,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4308,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Yucatan</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4339,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -4352,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -4365,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Genaro Codina</t>
@@ -4378,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -4391,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Jalpa</t>
@@ -4404,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -4417,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Juan Aldama</t>
@@ -4430,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Juchipila</t>
@@ -4443,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Loreto</t>
@@ -4456,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Mazapil</t>
@@ -4469,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Miguel Auza</t>
@@ -4482,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Rio Grande</t>
@@ -4495,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -4508,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Tepetongo</t>
@@ -4521,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Tlaltenango De Sanchez Roman</t>
@@ -4534,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Valparaiso</t>
@@ -4547,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -4560,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -4573,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -4586,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Total</t>
